--- a/Metadata_Experiment_Objects.xlsx
+++ b/Metadata_Experiment_Objects.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" firstSheet="19" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="11" r:id="rId1"/>
@@ -1260,14 +1260,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2779,7 +2779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+    <sheetView topLeftCell="BA1" workbookViewId="0">
       <selection activeCell="BE9" sqref="BE9"/>
     </sheetView>
   </sheetViews>

--- a/Metadata_Experiment_Objects.xlsx
+++ b/Metadata_Experiment_Objects.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="11" r:id="rId1"/>
@@ -1260,7 +1260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -2494,7 +2494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/Metadata_Experiment_Objects.xlsx
+++ b/Metadata_Experiment_Objects.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="11" r:id="rId1"/>
@@ -614,9 +614,6 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>voltage</t>
   </si>
   <si>
@@ -918,6 +915,9 @@
   </si>
   <si>
     <t>eMax</t>
+  </si>
+  <si>
+    <t>dischargeVoltage</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1266,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2224,7 +2224,7 @@
         <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F1" t="s">
         <v>180</v>
@@ -2377,12 +2377,13 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2401,19 +2402,19 @@
         <v>187</v>
       </c>
       <c r="E1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" t="s">
         <v>188</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>189</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>190</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>191</v>
-      </c>
-      <c r="I1" t="s">
-        <v>192</v>
       </c>
       <c r="J1" t="s">
         <v>135</v>
@@ -2494,7 +2495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2546,13 +2547,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="73.140625" customWidth="1"/>
   </cols>
@@ -2571,19 +2573,19 @@
         <v>187</v>
       </c>
       <c r="E1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" t="s">
         <v>188</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>189</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>190</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>191</v>
-      </c>
-      <c r="I1" t="s">
-        <v>192</v>
       </c>
       <c r="J1" t="s">
         <v>135</v>
@@ -2690,22 +2692,22 @@
         <v>131</v>
       </c>
       <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
         <v>193</v>
-      </c>
-      <c r="D1" t="s">
-        <v>194</v>
       </c>
       <c r="E1" t="s">
         <v>187</v>
       </c>
       <c r="F1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" t="s">
         <v>195</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>196</v>
-      </c>
-      <c r="H1" t="s">
-        <v>197</v>
       </c>
       <c r="I1" t="s">
         <v>135</v>
@@ -2848,163 +2850,163 @@
         <v>131</v>
       </c>
       <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
         <v>198</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>199</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>200</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>201</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>202</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>203</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>204</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>205</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>206</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>207</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>208</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>209</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>210</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>211</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>212</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>213</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>214</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>215</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>216</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>217</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>218</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>219</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>220</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>221</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>222</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>223</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>224</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>225</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>226</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>227</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>228</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>229</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>230</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>231</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>232</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>233</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>234</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>235</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>236</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>237</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>238</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>239</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>240</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>241</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>242</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>243</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>244</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>245</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>246</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>247</v>
       </c>
-      <c r="BA1" t="s">
-        <v>248</v>
-      </c>
       <c r="BB1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BC1" t="s">
         <v>288</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>289</v>
       </c>
       <c r="BD1" t="s">
         <v>88</v>
@@ -3013,16 +3015,16 @@
         <v>89</v>
       </c>
       <c r="BF1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BG1" t="s">
         <v>249</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>250</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>251</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>252</v>
       </c>
       <c r="BJ1" t="s">
         <v>135</v>
@@ -3268,262 +3270,262 @@
         <v>131</v>
       </c>
       <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
         <v>198</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>199</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>200</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>201</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>202</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>203</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>204</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>205</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>206</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>207</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>208</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>209</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>210</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>211</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>212</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>213</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>214</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>215</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>216</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>217</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>218</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>219</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>220</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>221</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>222</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>223</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>224</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>225</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>226</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>227</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>228</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>229</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>230</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>231</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>232</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>233</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>234</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>235</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>236</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>237</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>238</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>239</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>240</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>241</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>242</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>243</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>244</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>245</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>246</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>247</v>
       </c>
-      <c r="BA1" t="s">
-        <v>248</v>
-      </c>
       <c r="BB1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC1" t="s">
         <v>253</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>254</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>255</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>256</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>257</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>258</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>259</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>260</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>261</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>262</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>263</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>264</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>265</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>266</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>267</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>268</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>269</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>270</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>271</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>272</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>273</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>274</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>275</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>276</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>277</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>278</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>279</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>280</v>
       </c>
       <c r="CD1" t="s">
         <v>135</v>
       </c>
       <c r="CE1" t="s">
+        <v>280</v>
+      </c>
+      <c r="CF1" t="s">
         <v>281</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>282</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>283</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>284</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>285</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.25">
@@ -3556,7 +3558,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>

--- a/Metadata_Experiment_Objects.xlsx
+++ b/Metadata_Experiment_Objects.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" firstSheet="13" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="11" r:id="rId1"/>
@@ -1260,7 +1260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -2547,7 +2547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
